--- a/out/ruamds1_out.xlsx
+++ b/out/ruamds1_out.xlsx
@@ -16,25 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Название отчёта</t>
+    <t>{{ | | tableName }}</t>
   </si>
   <si>
     <t>Фильтры:</t>
   </si>
   <si>
-    <t>{{ |filters | name }}</t>
-  </si>
-  <si>
-    <t>{{ |filters | condition }}</t>
-  </si>
-  <si>
-    <t>{{ | | header1 }}</t>
-  </si>
-  <si>
-    <t>{{ | | header2 }}</t>
-  </si>
-  <si>
-    <t>{{ | | header3 }}</t>
+    <t>Название диллера</t>
+  </si>
+  <si>
+    <t>{{ |filters| condition }}</t>
+  </si>
+  <si>
+    <t>Тип диллера</t>
+  </si>
+  <si>
+    <t>Лимит записей</t>
+  </si>
+  <si>
+    <t>Заголовок 1</t>
+  </si>
+  <si>
+    <t>Заголовок 2</t>
+  </si>
+  <si>
+    <t>Заголовок 3</t>
   </si>
   <si>
     <t>{{ |vertical | id }}</t>
@@ -46,46 +52,25 @@
     <t>{{ |vertical | type }}</t>
   </si>
   <si>
-    <t xml:space="preserve">name1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name2</t>
+    <t xml:space="preserve">Table name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like Лада%</t>
   </si>
   <si>
     <t xml:space="preserve">condition2</t>
   </si>
   <si>
-    <t xml:space="preserve">Заголовок 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заголовок 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заголовок 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1230451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канск-Лада</t>
+    <t xml:space="preserve">condition3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3903735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ладаинтерсервис (Саратов)</t>
   </si>
   <si>
     <t xml:space="preserve">Дилер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">708120633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРАЙД (филиал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1373228951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орехово-АвтоЦентр(Электросталь)</t>
   </si>
 </sst>
 </file>
@@ -97,6 +82,12 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -123,6 +114,18 @@
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border/>
@@ -151,20 +154,41 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,7 +413,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="s" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -400,72 +424,79 @@
       <c r="D2"/>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="1">
+      <c r="B3" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>11</v>
+      <c r="B4" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>13</v>
       </c>
       <c r="D4"/>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="2">
+      <c r="B6" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D12" t="s" s="13">
         <v>18</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/out/ruamds1_out.xlsx
+++ b/out/ruamds1_out.xlsx
@@ -16,22 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>{{ | | tableName }}</t>
-  </si>
-  <si>
-    <t>Фильтры:</t>
-  </si>
-  <si>
-    <t>Название диллера</t>
-  </si>
-  <si>
-    <t>{{ |filters| condition }}</t>
-  </si>
-  <si>
-    <t>Тип диллера</t>
-  </si>
-  <si>
-    <t>Лимит записей</t>
+    <t>Search criteria</t>
+  </si>
+  <si>
+    <t>{{ | 1 * search |  condition  }}</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>{{ || date }}</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>{{ || time }}</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Sergey Komarov</t>
   </si>
   <si>
     <t>Заголовок 1</t>
@@ -43,34 +49,43 @@
     <t>Заголовок 3</t>
   </si>
   <si>
-    <t>{{ |vertical | id }}</t>
-  </si>
-  <si>
-    <t>{{ |vertical | DealerName }}</t>
-  </si>
-  <si>
-    <t>{{ |vertical | type }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like Лада%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3903735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ладаинтерсервис (Саратов)</t>
+    <t>{{ |table | id }}</t>
+  </si>
+  <si>
+    <t>{{ |table | DealerName }}</t>
+  </si>
+  <si>
+    <t>{{ |table | type }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DealerName contains Лада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2751626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двина - Лада</t>
   </si>
   <si>
     <t xml:space="preserve">Дилер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234651878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бурят Лада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3647873800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказ-Лада</t>
   </si>
 </sst>
 </file>
@@ -86,16 +101,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -103,8 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills>
@@ -116,33 +128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD5263B"/>
+        <bgColor rgb="FFD5263B"/>
       </patternFill>
     </fill>
   </fills>
   <borders>
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -151,43 +143,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -406,97 +371,94 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.38"/>
-    <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="1" max="1" width="21.38"/>
+    <col customWidth="1" min="2" max="2" width="23.25"/>
+    <col customWidth="1" min="3" max="3" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="C1"/>
-      <c r="D1"/>
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="2">
-      <c r="B2"/>
+      <c r="A2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>15</v>
+      </c>
       <c r="C2"/>
-      <c r="D2"/>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="2">
-        <v>1</v>
+      <c r="A3" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>16</v>
       </c>
       <c r="C3"/>
-      <c r="D3"/>
     </row>
     <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>6</v>
+      </c>
       <c r="B4" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="D4"/>
+        <v>7</v>
+      </c>
+      <c r="C4"/>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="A6" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
+      <c r="A7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>18</v>
+      <c r="A9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
